--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Diplomová Práce\ANPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A9908A-65B7-4746-A84C-8D2E3BA8103D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903783C-066C-4A81-B09C-79448186E0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34125" yWindow="1890" windowWidth="21600" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Names</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Modry Kodiaq</t>
+  </si>
+  <si>
+    <t>7T49394</t>
+  </si>
+  <si>
+    <t>Golf Plus</t>
+  </si>
+  <si>
+    <t>7T90411</t>
+  </si>
+  <si>
+    <t>Bila Fabia</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +681,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\Diplomová Práce\ANPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903783C-066C-4A81-B09C-79448186E0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935493D5-8C95-4409-8A00-AD30D1A9C0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34125" yWindow="1890" windowWidth="21600" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Names</t>
   </si>
@@ -160,6 +160,48 @@
   </si>
   <si>
     <t>Bila Fabia</t>
+  </si>
+  <si>
+    <t>9T59330</t>
+  </si>
+  <si>
+    <t>Cerna Mazda</t>
+  </si>
+  <si>
+    <t>Cerveny Ranult</t>
+  </si>
+  <si>
+    <t>5T36748</t>
+  </si>
+  <si>
+    <t>1TE3454</t>
+  </si>
+  <si>
+    <t>Modry Civic</t>
+  </si>
+  <si>
+    <t>tmavy Passat</t>
+  </si>
+  <si>
+    <t>6T87619</t>
+  </si>
+  <si>
+    <t>1TF7734</t>
+  </si>
+  <si>
+    <t>Cerny Scenic</t>
+  </si>
+  <si>
+    <t>CernySuperb</t>
+  </si>
+  <si>
+    <t>1TN4889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOBUS </t>
+  </si>
+  <si>
+    <t>1TU2099</t>
   </si>
 </sst>
 </file>
@@ -477,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="P16" sqref="P16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +739,62 @@
         <v>43</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
